--- a/JOGOS/2023-07-29_btts_no.xlsx
+++ b/JOGOS/2023-07-29_btts_no.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -46,58 +46,112 @@
     <t>FT_Odd_BTTS_Yes</t>
   </si>
   <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>DENMARK - 1ST DIVISION</t>
-  </si>
-  <si>
-    <t>SWEDEN - SUPERETTAN</t>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>CHINA - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>BULGARIA - PARVA LIGA</t>
+  </si>
+  <si>
+    <t>CROATIA - HNL</t>
   </si>
   <si>
     <t>ARGENTINA - LIGA PROFESIONAL</t>
   </si>
   <si>
+    <t>MONTENEGRO - PRVA CRNOGORSKA LIGA</t>
+  </si>
+  <si>
     <t>BRAZIL - SERIE B</t>
   </si>
   <si>
-    <t>Hobro</t>
-  </si>
-  <si>
-    <t>AFC Eskilstuna</t>
-  </si>
-  <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
-    <t>Ceara</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Naestved</t>
-  </si>
-  <si>
-    <t>Skovde AIK</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Ituano</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
+    <t>PERU - LIGA 1</t>
+  </si>
+  <si>
+    <t>USA - USL CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Hebar</t>
+  </si>
+  <si>
+    <t>Gorica</t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
+  </si>
+  <si>
+    <t>Jedinstvo</t>
+  </si>
+  <si>
+    <t>Istra 1961</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Cajamarca</t>
+  </si>
+  <si>
+    <t>Monterey Bay</t>
+  </si>
+  <si>
+    <t>Dalian Pro</t>
+  </si>
+  <si>
+    <t>Beroe</t>
+  </si>
+  <si>
+    <t>Lok. Zagreb</t>
+  </si>
+  <si>
+    <t>Atl. Tucuman</t>
+  </si>
+  <si>
+    <t>Rudar</t>
+  </si>
+  <si>
+    <t>D. Zagreb</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Union Comercio</t>
+  </si>
+  <si>
+    <t>Phoenix Rising</t>
   </si>
 </sst>
 </file>
@@ -455,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,168 +558,308 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
         <v>3.1</v>
       </c>
       <c r="J4">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>4.92</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
-        <v>2.39</v>
+        <v>2.7</v>
       </c>
       <c r="K5">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>2.02</v>
+      </c>
+      <c r="H6">
+        <v>3.3</v>
+      </c>
+      <c r="I6">
+        <v>3.32</v>
+      </c>
+      <c r="J6">
+        <v>1.93</v>
+      </c>
+      <c r="K6">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>5.25</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7">
+        <v>2.03</v>
+      </c>
+      <c r="K7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>1.98</v>
+      </c>
+      <c r="H8">
+        <v>3.2</v>
+      </c>
+      <c r="I8">
+        <v>4.22</v>
+      </c>
+      <c r="J8">
+        <v>2.65</v>
+      </c>
+      <c r="K8">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>1.57</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>1.75</v>
+      </c>
+      <c r="K9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="G6">
-        <v>1.5</v>
-      </c>
-      <c r="H6">
-        <v>4.5</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
-      <c r="J6">
-        <v>1.75</v>
-      </c>
-      <c r="K6">
-        <v>1.95</v>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>1.96</v>
+      </c>
+      <c r="H10">
+        <v>3.5</v>
+      </c>
+      <c r="I10">
+        <v>3.52</v>
+      </c>
+      <c r="J10">
+        <v>1.86</v>
+      </c>
+      <c r="K10">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
